--- a/04 - Persistance des données/02 - Mettre en place une base de données/03 - Remplir les tables/Departement Region.xlsx
+++ b/04 - Persistance des données/02 - Mettre en place une base de données/03 - Remplir les tables/Departement Region.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-82-08\04 - Persistance des données\02 - Mettre en place une base de données\03 - Remplir les tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-95\Reference\02 - Base de données\02 - Création d'une base de données\Remplir les tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Region" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="130">
   <si>
     <t>Ain</t>
   </si>
@@ -409,9 +409,6 @@
   </si>
   <si>
     <t>Nb Depart</t>
-  </si>
-  <si>
-    <t>N Région</t>
   </si>
 </sst>
 </file>
@@ -1218,21 +1215,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -1251,20 +1247,8 @@
       <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1283,21 +1267,8 @@
       <c r="G2">
         <v>12</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M2" t="e">
-        <f>VLOOKUP(L2,$E$1:$F$15,1,1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1316,21 +1287,8 @@
       <c r="G3">
         <v>8</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" t="e">
-        <f>VLOOKUP(L3,$E$2:$F$2,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1349,21 +1307,8 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="e">
-        <f t="shared" ref="M3:M66" si="0">VLOOKUP(L4,$E$2:$G$15,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1382,21 +1327,8 @@
       <c r="G5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1415,21 +1347,8 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1448,21 +1367,8 @@
       <c r="G7">
         <v>10</v>
       </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1481,21 +1387,8 @@
       <c r="G8">
         <v>5</v>
       </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1514,21 +1407,8 @@
       <c r="G9">
         <v>8</v>
       </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1547,21 +1427,8 @@
       <c r="G10">
         <v>5</v>
       </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1580,21 +1447,8 @@
       <c r="G11">
         <v>12</v>
       </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1613,21 +1467,8 @@
       <c r="G12">
         <v>13</v>
       </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1646,21 +1487,8 @@
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1679,21 +1507,8 @@
       <c r="G14">
         <v>6</v>
       </c>
-      <c r="J14">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M14" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1712,21 +1527,8 @@
       <c r="G15">
         <v>12</v>
       </c>
-      <c r="J15">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1736,21 +1538,8 @@
       <c r="C16" t="s">
         <v>96</v>
       </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1760,21 +1549,8 @@
       <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1784,21 +1560,8 @@
       <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="J18">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1808,21 +1571,8 @@
       <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="J19">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1832,21 +1582,8 @@
       <c r="C20" t="s">
         <v>92</v>
       </c>
-      <c r="J20">
-        <v>19</v>
-      </c>
-      <c r="K20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1856,21 +1593,8 @@
       <c r="C21" t="s">
         <v>97</v>
       </c>
-      <c r="J21">
-        <v>21</v>
-      </c>
-      <c r="K21" t="s">
-        <v>100</v>
-      </c>
-      <c r="L21" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1880,21 +1604,8 @@
       <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="J22">
-        <v>22</v>
-      </c>
-      <c r="K22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1904,21 +1615,8 @@
       <c r="C23" t="s">
         <v>92</v>
       </c>
-      <c r="J23">
-        <v>23</v>
-      </c>
-      <c r="K23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" t="s">
-        <v>92</v>
-      </c>
-      <c r="M23" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1928,21 +1626,8 @@
       <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="J24">
-        <v>24</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1952,21 +1637,8 @@
       <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="J25">
-        <v>25</v>
-      </c>
-      <c r="K25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1976,21 +1648,8 @@
       <c r="C26" t="s">
         <v>96</v>
       </c>
-      <c r="J26">
-        <v>26</v>
-      </c>
-      <c r="K26" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2000,21 +1659,8 @@
       <c r="C27" t="s">
         <v>91</v>
       </c>
-      <c r="J27">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>91</v>
-      </c>
-      <c r="M27" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2024,21 +1670,8 @@
       <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="J28">
-        <v>28</v>
-      </c>
-      <c r="K28" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" t="s">
-        <v>86</v>
-      </c>
-      <c r="M28" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -2048,21 +1681,8 @@
       <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="J29">
-        <v>29</v>
-      </c>
-      <c r="K29" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2072,21 +1692,8 @@
       <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="J30" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" t="s">
-        <v>87</v>
-      </c>
-      <c r="M30" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2096,21 +1703,8 @@
       <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="J31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" t="s">
-        <v>87</v>
-      </c>
-      <c r="M31" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2120,21 +1714,8 @@
       <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="J32">
-        <v>30</v>
-      </c>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" t="s">
-        <v>93</v>
-      </c>
-      <c r="M32" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2144,21 +1725,8 @@
       <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="J33">
-        <v>31</v>
-      </c>
-      <c r="K33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" t="s">
-        <v>93</v>
-      </c>
-      <c r="M33" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2168,21 +1736,8 @@
       <c r="C34" t="s">
         <v>93</v>
       </c>
-      <c r="J34">
-        <v>32</v>
-      </c>
-      <c r="K34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M34" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2192,21 +1747,8 @@
       <c r="C35" t="s">
         <v>92</v>
       </c>
-      <c r="J35">
-        <v>33</v>
-      </c>
-      <c r="K35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" t="s">
-        <v>92</v>
-      </c>
-      <c r="M35" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2216,21 +1758,8 @@
       <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="J36">
-        <v>34</v>
-      </c>
-      <c r="K36" t="s">
-        <v>107</v>
-      </c>
-      <c r="L36" t="s">
-        <v>93</v>
-      </c>
-      <c r="M36" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2240,21 +1769,8 @@
       <c r="C37" t="s">
         <v>85</v>
       </c>
-      <c r="J37">
-        <v>35</v>
-      </c>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" t="s">
-        <v>85</v>
-      </c>
-      <c r="M37" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2264,21 +1780,8 @@
       <c r="C38" t="s">
         <v>86</v>
       </c>
-      <c r="J38">
-        <v>36</v>
-      </c>
-      <c r="K38" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" t="s">
-        <v>86</v>
-      </c>
-      <c r="M38" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2288,21 +1791,8 @@
       <c r="C39" t="s">
         <v>86</v>
       </c>
-      <c r="J39">
-        <v>37</v>
-      </c>
-      <c r="K39" t="s">
-        <v>30</v>
-      </c>
-      <c r="L39" t="s">
-        <v>86</v>
-      </c>
-      <c r="M39" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2312,21 +1802,8 @@
       <c r="C40" t="s">
         <v>96</v>
       </c>
-      <c r="J40">
-        <v>38</v>
-      </c>
-      <c r="K40" t="s">
-        <v>108</v>
-      </c>
-      <c r="L40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2336,21 +1813,8 @@
       <c r="C41" t="s">
         <v>97</v>
       </c>
-      <c r="J41">
-        <v>39</v>
-      </c>
-      <c r="K41" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" t="s">
-        <v>97</v>
-      </c>
-      <c r="M41" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2360,21 +1824,8 @@
       <c r="C42" t="s">
         <v>92</v>
       </c>
-      <c r="J42">
-        <v>40</v>
-      </c>
-      <c r="K42" t="s">
-        <v>32</v>
-      </c>
-      <c r="L42" t="s">
-        <v>92</v>
-      </c>
-      <c r="M42" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2384,21 +1835,8 @@
       <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="J43">
-        <v>41</v>
-      </c>
-      <c r="K43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" t="s">
-        <v>86</v>
-      </c>
-      <c r="M43" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2408,21 +1846,8 @@
       <c r="C44" t="s">
         <v>96</v>
       </c>
-      <c r="J44">
-        <v>42</v>
-      </c>
-      <c r="K44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L44" t="s">
-        <v>96</v>
-      </c>
-      <c r="M44" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2432,21 +1857,8 @@
       <c r="C45" t="s">
         <v>96</v>
       </c>
-      <c r="J45">
-        <v>43</v>
-      </c>
-      <c r="K45" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" t="s">
-        <v>96</v>
-      </c>
-      <c r="M45" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2456,21 +1868,8 @@
       <c r="C46" t="s">
         <v>94</v>
       </c>
-      <c r="J46">
-        <v>44</v>
-      </c>
-      <c r="K46" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" t="s">
-        <v>94</v>
-      </c>
-      <c r="M46" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2480,21 +1879,8 @@
       <c r="C47" t="s">
         <v>86</v>
       </c>
-      <c r="J47">
-        <v>45</v>
-      </c>
-      <c r="K47" t="s">
-        <v>37</v>
-      </c>
-      <c r="L47" t="s">
-        <v>86</v>
-      </c>
-      <c r="M47" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2504,21 +1890,8 @@
       <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="J48">
-        <v>46</v>
-      </c>
-      <c r="K48" t="s">
-        <v>38</v>
-      </c>
-      <c r="L48" t="s">
-        <v>93</v>
-      </c>
-      <c r="M48" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2528,21 +1901,8 @@
       <c r="C49" t="s">
         <v>92</v>
       </c>
-      <c r="J49">
-        <v>47</v>
-      </c>
-      <c r="K49" t="s">
-        <v>39</v>
-      </c>
-      <c r="L49" t="s">
-        <v>92</v>
-      </c>
-      <c r="M49" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2552,21 +1912,8 @@
       <c r="C50" t="s">
         <v>93</v>
       </c>
-      <c r="J50">
-        <v>48</v>
-      </c>
-      <c r="K50" t="s">
-        <v>109</v>
-      </c>
-      <c r="L50" t="s">
-        <v>93</v>
-      </c>
-      <c r="M50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2576,21 +1923,8 @@
       <c r="C51" t="s">
         <v>94</v>
       </c>
-      <c r="J51">
-        <v>49</v>
-      </c>
-      <c r="K51" t="s">
-        <v>40</v>
-      </c>
-      <c r="L51" t="s">
-        <v>94</v>
-      </c>
-      <c r="M51" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2600,21 +1934,8 @@
       <c r="C52" t="s">
         <v>91</v>
       </c>
-      <c r="J52">
-        <v>50</v>
-      </c>
-      <c r="K52" t="s">
-        <v>41</v>
-      </c>
-      <c r="L52" t="s">
-        <v>91</v>
-      </c>
-      <c r="M52" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2624,21 +1945,8 @@
       <c r="C53" t="s">
         <v>88</v>
       </c>
-      <c r="J53">
-        <v>51</v>
-      </c>
-      <c r="K53" t="s">
-        <v>42</v>
-      </c>
-      <c r="L53" t="s">
-        <v>88</v>
-      </c>
-      <c r="M53" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2648,21 +1956,8 @@
       <c r="C54" t="s">
         <v>88</v>
       </c>
-      <c r="J54">
-        <v>52</v>
-      </c>
-      <c r="K54" t="s">
-        <v>43</v>
-      </c>
-      <c r="L54" t="s">
-        <v>88</v>
-      </c>
-      <c r="M54" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2672,21 +1967,8 @@
       <c r="C55" t="s">
         <v>94</v>
       </c>
-      <c r="J55">
-        <v>53</v>
-      </c>
-      <c r="K55" t="s">
-        <v>44</v>
-      </c>
-      <c r="L55" t="s">
-        <v>94</v>
-      </c>
-      <c r="M55" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2696,21 +1978,8 @@
       <c r="C56" t="s">
         <v>88</v>
       </c>
-      <c r="J56">
-        <v>54</v>
-      </c>
-      <c r="K56" t="s">
-        <v>45</v>
-      </c>
-      <c r="L56" t="s">
-        <v>88</v>
-      </c>
-      <c r="M56" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2720,21 +1989,8 @@
       <c r="C57" t="s">
         <v>88</v>
       </c>
-      <c r="J57">
-        <v>55</v>
-      </c>
-      <c r="K57" t="s">
-        <v>46</v>
-      </c>
-      <c r="L57" t="s">
-        <v>88</v>
-      </c>
-      <c r="M57" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2744,21 +2000,8 @@
       <c r="C58" t="s">
         <v>85</v>
       </c>
-      <c r="J58">
-        <v>56</v>
-      </c>
-      <c r="K58" t="s">
-        <v>47</v>
-      </c>
-      <c r="L58" t="s">
-        <v>85</v>
-      </c>
-      <c r="M58" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2768,21 +2011,8 @@
       <c r="C59" t="s">
         <v>88</v>
       </c>
-      <c r="J59">
-        <v>57</v>
-      </c>
-      <c r="K59" t="s">
-        <v>48</v>
-      </c>
-      <c r="L59" t="s">
-        <v>88</v>
-      </c>
-      <c r="M59" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2792,21 +2022,8 @@
       <c r="C60" t="s">
         <v>97</v>
       </c>
-      <c r="J60">
-        <v>58</v>
-      </c>
-      <c r="K60" t="s">
-        <v>110</v>
-      </c>
-      <c r="L60" t="s">
-        <v>97</v>
-      </c>
-      <c r="M60" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2816,21 +2033,8 @@
       <c r="C61" t="s">
         <v>89</v>
       </c>
-      <c r="J61">
-        <v>59</v>
-      </c>
-      <c r="K61" t="s">
-        <v>49</v>
-      </c>
-      <c r="L61" t="s">
-        <v>89</v>
-      </c>
-      <c r="M61" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2840,21 +2044,8 @@
       <c r="C62" t="s">
         <v>89</v>
       </c>
-      <c r="J62">
-        <v>60</v>
-      </c>
-      <c r="K62" t="s">
-        <v>50</v>
-      </c>
-      <c r="L62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M62" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2864,21 +2055,8 @@
       <c r="C63" t="s">
         <v>91</v>
       </c>
-      <c r="J63">
-        <v>61</v>
-      </c>
-      <c r="K63" t="s">
-        <v>51</v>
-      </c>
-      <c r="L63" t="s">
-        <v>91</v>
-      </c>
-      <c r="M63" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2888,21 +2066,8 @@
       <c r="C64" t="s">
         <v>89</v>
       </c>
-      <c r="J64">
-        <v>62</v>
-      </c>
-      <c r="K64" t="s">
-        <v>52</v>
-      </c>
-      <c r="L64" t="s">
-        <v>89</v>
-      </c>
-      <c r="M64" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2912,21 +2077,8 @@
       <c r="C65" t="s">
         <v>96</v>
       </c>
-      <c r="J65">
-        <v>63</v>
-      </c>
-      <c r="K65" t="s">
-        <v>112</v>
-      </c>
-      <c r="L65" t="s">
-        <v>96</v>
-      </c>
-      <c r="M65" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2936,21 +2088,8 @@
       <c r="C66" t="s">
         <v>92</v>
       </c>
-      <c r="J66">
-        <v>64</v>
-      </c>
-      <c r="K66" t="s">
-        <v>116</v>
-      </c>
-      <c r="L66" t="s">
-        <v>92</v>
-      </c>
-      <c r="M66" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2960,21 +2099,8 @@
       <c r="C67" t="s">
         <v>93</v>
       </c>
-      <c r="J67">
-        <v>65</v>
-      </c>
-      <c r="K67" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" t="s">
-        <v>93</v>
-      </c>
-      <c r="M67" t="e">
-        <f t="shared" ref="M67:M110" si="1">VLOOKUP(L67,$E$2:$G$15,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2984,21 +2110,8 @@
       <c r="C68" t="s">
         <v>93</v>
       </c>
-      <c r="J68">
-        <v>66</v>
-      </c>
-      <c r="K68" t="s">
-        <v>118</v>
-      </c>
-      <c r="L68" t="s">
-        <v>93</v>
-      </c>
-      <c r="M68" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3008,21 +2121,8 @@
       <c r="C69" t="s">
         <v>88</v>
       </c>
-      <c r="J69">
-        <v>67</v>
-      </c>
-      <c r="K69" t="s">
-        <v>53</v>
-      </c>
-      <c r="L69" t="s">
-        <v>88</v>
-      </c>
-      <c r="M69" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3032,21 +2132,8 @@
       <c r="C70" t="s">
         <v>88</v>
       </c>
-      <c r="J70">
-        <v>68</v>
-      </c>
-      <c r="K70" t="s">
-        <v>54</v>
-      </c>
-      <c r="L70" t="s">
-        <v>88</v>
-      </c>
-      <c r="M70" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3056,21 +2143,8 @@
       <c r="C71" t="s">
         <v>96</v>
       </c>
-      <c r="J71">
-        <v>69</v>
-      </c>
-      <c r="K71" t="s">
-        <v>113</v>
-      </c>
-      <c r="L71" t="s">
-        <v>96</v>
-      </c>
-      <c r="M71" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3080,21 +2154,8 @@
       <c r="C72" t="s">
         <v>97</v>
       </c>
-      <c r="J72">
-        <v>70</v>
-      </c>
-      <c r="K72" t="s">
-        <v>114</v>
-      </c>
-      <c r="L72" t="s">
-        <v>97</v>
-      </c>
-      <c r="M72" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3104,21 +2165,8 @@
       <c r="C73" t="s">
         <v>97</v>
       </c>
-      <c r="J73">
-        <v>71</v>
-      </c>
-      <c r="K73" t="s">
-        <v>115</v>
-      </c>
-      <c r="L73" t="s">
-        <v>97</v>
-      </c>
-      <c r="M73" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3128,21 +2176,8 @@
       <c r="C74" t="s">
         <v>94</v>
       </c>
-      <c r="J74">
-        <v>72</v>
-      </c>
-      <c r="K74" t="s">
-        <v>55</v>
-      </c>
-      <c r="L74" t="s">
-        <v>94</v>
-      </c>
-      <c r="M74" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3152,21 +2187,8 @@
       <c r="C75" t="s">
         <v>96</v>
       </c>
-      <c r="J75">
-        <v>73</v>
-      </c>
-      <c r="K75" t="s">
-        <v>56</v>
-      </c>
-      <c r="L75" t="s">
-        <v>96</v>
-      </c>
-      <c r="M75" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3176,21 +2198,8 @@
       <c r="C76" t="s">
         <v>96</v>
       </c>
-      <c r="J76">
-        <v>74</v>
-      </c>
-      <c r="K76" t="s">
-        <v>57</v>
-      </c>
-      <c r="L76" t="s">
-        <v>96</v>
-      </c>
-      <c r="M76" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3200,21 +2209,8 @@
       <c r="C77" t="s">
         <v>90</v>
       </c>
-      <c r="J77">
-        <v>75</v>
-      </c>
-      <c r="K77" t="s">
-        <v>58</v>
-      </c>
-      <c r="L77" t="s">
-        <v>90</v>
-      </c>
-      <c r="M77" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3224,21 +2220,8 @@
       <c r="C78" t="s">
         <v>91</v>
       </c>
-      <c r="J78">
-        <v>76</v>
-      </c>
-      <c r="K78" t="s">
-        <v>59</v>
-      </c>
-      <c r="L78" t="s">
-        <v>91</v>
-      </c>
-      <c r="M78" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3248,21 +2231,8 @@
       <c r="C79" t="s">
         <v>90</v>
       </c>
-      <c r="J79">
-        <v>77</v>
-      </c>
-      <c r="K79" t="s">
-        <v>60</v>
-      </c>
-      <c r="L79" t="s">
-        <v>90</v>
-      </c>
-      <c r="M79" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3272,21 +2242,8 @@
       <c r="C80" t="s">
         <v>90</v>
       </c>
-      <c r="J80">
-        <v>78</v>
-      </c>
-      <c r="K80" t="s">
-        <v>61</v>
-      </c>
-      <c r="L80" t="s">
-        <v>90</v>
-      </c>
-      <c r="M80" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3296,21 +2253,8 @@
       <c r="C81" t="s">
         <v>92</v>
       </c>
-      <c r="J81">
-        <v>79</v>
-      </c>
-      <c r="K81" t="s">
-        <v>111</v>
-      </c>
-      <c r="L81" t="s">
-        <v>92</v>
-      </c>
-      <c r="M81" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3320,21 +2264,8 @@
       <c r="C82" t="s">
         <v>89</v>
       </c>
-      <c r="J82">
-        <v>80</v>
-      </c>
-      <c r="K82" t="s">
-        <v>62</v>
-      </c>
-      <c r="L82" t="s">
-        <v>89</v>
-      </c>
-      <c r="M82" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3344,21 +2275,8 @@
       <c r="C83" t="s">
         <v>93</v>
       </c>
-      <c r="J83">
-        <v>81</v>
-      </c>
-      <c r="K83" t="s">
-        <v>63</v>
-      </c>
-      <c r="L83" t="s">
-        <v>93</v>
-      </c>
-      <c r="M83" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3368,21 +2286,8 @@
       <c r="C84" t="s">
         <v>93</v>
       </c>
-      <c r="J84">
-        <v>82</v>
-      </c>
-      <c r="K84" t="s">
-        <v>64</v>
-      </c>
-      <c r="L84" t="s">
-        <v>93</v>
-      </c>
-      <c r="M84" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3392,21 +2297,8 @@
       <c r="C85" t="s">
         <v>98</v>
       </c>
-      <c r="J85">
-        <v>83</v>
-      </c>
-      <c r="K85" t="s">
-        <v>65</v>
-      </c>
-      <c r="L85" t="s">
-        <v>98</v>
-      </c>
-      <c r="M85" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3416,21 +2308,8 @@
       <c r="C86" t="s">
         <v>98</v>
       </c>
-      <c r="J86">
-        <v>84</v>
-      </c>
-      <c r="K86" t="s">
-        <v>66</v>
-      </c>
-      <c r="L86" t="s">
-        <v>98</v>
-      </c>
-      <c r="M86" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3440,21 +2319,8 @@
       <c r="C87" t="s">
         <v>94</v>
       </c>
-      <c r="J87">
-        <v>85</v>
-      </c>
-      <c r="K87" t="s">
-        <v>119</v>
-      </c>
-      <c r="L87" t="s">
-        <v>94</v>
-      </c>
-      <c r="M87" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3464,21 +2330,8 @@
       <c r="C88" t="s">
         <v>92</v>
       </c>
-      <c r="J88">
-        <v>86</v>
-      </c>
-      <c r="K88" t="s">
-        <v>67</v>
-      </c>
-      <c r="L88" t="s">
-        <v>92</v>
-      </c>
-      <c r="M88" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3488,21 +2341,8 @@
       <c r="C89" t="s">
         <v>92</v>
       </c>
-      <c r="J89">
-        <v>87</v>
-      </c>
-      <c r="K89" t="s">
-        <v>68</v>
-      </c>
-      <c r="L89" t="s">
-        <v>92</v>
-      </c>
-      <c r="M89" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3512,21 +2352,8 @@
       <c r="C90" t="s">
         <v>88</v>
       </c>
-      <c r="J90">
-        <v>88</v>
-      </c>
-      <c r="K90" t="s">
-        <v>69</v>
-      </c>
-      <c r="L90" t="s">
-        <v>88</v>
-      </c>
-      <c r="M90" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3536,21 +2363,8 @@
       <c r="C91" t="s">
         <v>97</v>
       </c>
-      <c r="J91">
-        <v>89</v>
-      </c>
-      <c r="K91" t="s">
-        <v>70</v>
-      </c>
-      <c r="L91" t="s">
-        <v>97</v>
-      </c>
-      <c r="M91" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3560,21 +2374,8 @@
       <c r="C92" t="s">
         <v>97</v>
       </c>
-      <c r="J92">
-        <v>90</v>
-      </c>
-      <c r="K92" t="s">
-        <v>71</v>
-      </c>
-      <c r="L92" t="s">
-        <v>97</v>
-      </c>
-      <c r="M92" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3584,21 +2385,8 @@
       <c r="C93" t="s">
         <v>90</v>
       </c>
-      <c r="J93">
-        <v>91</v>
-      </c>
-      <c r="K93" t="s">
-        <v>72</v>
-      </c>
-      <c r="L93" t="s">
-        <v>90</v>
-      </c>
-      <c r="M93" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3608,21 +2396,8 @@
       <c r="C94" t="s">
         <v>90</v>
       </c>
-      <c r="J94">
-        <v>92</v>
-      </c>
-      <c r="K94" t="s">
-        <v>73</v>
-      </c>
-      <c r="L94" t="s">
-        <v>90</v>
-      </c>
-      <c r="M94" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3632,21 +2407,8 @@
       <c r="C95" t="s">
         <v>90</v>
       </c>
-      <c r="J95">
-        <v>93</v>
-      </c>
-      <c r="K95" t="s">
-        <v>74</v>
-      </c>
-      <c r="L95" t="s">
-        <v>90</v>
-      </c>
-      <c r="M95" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3656,21 +2418,8 @@
       <c r="C96" t="s">
         <v>90</v>
       </c>
-      <c r="J96">
-        <v>94</v>
-      </c>
-      <c r="K96" t="s">
-        <v>75</v>
-      </c>
-      <c r="L96" t="s">
-        <v>90</v>
-      </c>
-      <c r="M96" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3680,21 +2429,8 @@
       <c r="C97" t="s">
         <v>90</v>
       </c>
-      <c r="J97">
-        <v>95</v>
-      </c>
-      <c r="K97" t="s">
-        <v>76</v>
-      </c>
-      <c r="L97" t="s">
-        <v>90</v>
-      </c>
-      <c r="M97" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>971</v>
       </c>
@@ -3704,21 +2440,8 @@
       <c r="C98" t="s">
         <v>95</v>
       </c>
-      <c r="J98">
-        <v>971</v>
-      </c>
-      <c r="K98" t="s">
-        <v>77</v>
-      </c>
-      <c r="L98" t="s">
-        <v>95</v>
-      </c>
-      <c r="M98" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>972</v>
       </c>
@@ -3728,21 +2451,8 @@
       <c r="C99" t="s">
         <v>95</v>
       </c>
-      <c r="J99">
-        <v>972</v>
-      </c>
-      <c r="K99" t="s">
-        <v>78</v>
-      </c>
-      <c r="L99" t="s">
-        <v>95</v>
-      </c>
-      <c r="M99" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>973</v>
       </c>
@@ -3752,21 +2462,8 @@
       <c r="C100" t="s">
         <v>95</v>
       </c>
-      <c r="J100">
-        <v>973</v>
-      </c>
-      <c r="K100" t="s">
-        <v>79</v>
-      </c>
-      <c r="L100" t="s">
-        <v>95</v>
-      </c>
-      <c r="M100" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>974</v>
       </c>
@@ -3776,21 +2473,8 @@
       <c r="C101" t="s">
         <v>95</v>
       </c>
-      <c r="J101">
-        <v>974</v>
-      </c>
-      <c r="K101" t="s">
-        <v>120</v>
-      </c>
-      <c r="L101" t="s">
-        <v>95</v>
-      </c>
-      <c r="M101" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>975</v>
       </c>
@@ -3800,39 +2484,16 @@
       <c r="C102" t="s">
         <v>95</v>
       </c>
-      <c r="J102">
-        <v>975</v>
-      </c>
-      <c r="K102" t="s">
-        <v>80</v>
-      </c>
-      <c r="L102" t="s">
-        <v>95</v>
-      </c>
-      <c r="M102" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>976</v>
       </c>
       <c r="B103" t="s">
         <v>81</v>
       </c>
-      <c r="J103">
-        <v>976</v>
-      </c>
-      <c r="K103" t="s">
-        <v>81</v>
-      </c>
-      <c r="M103" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>977</v>
       </c>
@@ -3842,21 +2503,8 @@
       <c r="C104" t="s">
         <v>95</v>
       </c>
-      <c r="J104">
-        <v>977</v>
-      </c>
-      <c r="K104" t="s">
-        <v>121</v>
-      </c>
-      <c r="L104" t="s">
-        <v>95</v>
-      </c>
-      <c r="M104" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>978</v>
       </c>
@@ -3866,21 +2514,8 @@
       <c r="C105" t="s">
         <v>95</v>
       </c>
-      <c r="J105">
-        <v>978</v>
-      </c>
-      <c r="K105" t="s">
-        <v>82</v>
-      </c>
-      <c r="L105" t="s">
-        <v>95</v>
-      </c>
-      <c r="M105" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>984</v>
       </c>
@@ -3890,21 +2525,8 @@
       <c r="C106" t="s">
         <v>95</v>
       </c>
-      <c r="J106">
-        <v>984</v>
-      </c>
-      <c r="K106" t="s">
-        <v>123</v>
-      </c>
-      <c r="L106" t="s">
-        <v>95</v>
-      </c>
-      <c r="M106" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>986</v>
       </c>
@@ -3914,21 +2536,8 @@
       <c r="C107" t="s">
         <v>95</v>
       </c>
-      <c r="J107">
-        <v>986</v>
-      </c>
-      <c r="K107" t="s">
-        <v>83</v>
-      </c>
-      <c r="L107" t="s">
-        <v>95</v>
-      </c>
-      <c r="M107" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>987</v>
       </c>
@@ -3938,21 +2547,8 @@
       <c r="C108" t="s">
         <v>95</v>
       </c>
-      <c r="J108">
-        <v>987</v>
-      </c>
-      <c r="K108" t="s">
-        <v>124</v>
-      </c>
-      <c r="L108" t="s">
-        <v>95</v>
-      </c>
-      <c r="M108" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>988</v>
       </c>
@@ -3962,21 +2558,8 @@
       <c r="C109" t="s">
         <v>95</v>
       </c>
-      <c r="J109">
-        <v>988</v>
-      </c>
-      <c r="K109" t="s">
-        <v>122</v>
-      </c>
-      <c r="L109" t="s">
-        <v>95</v>
-      </c>
-      <c r="M109" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>989</v>
       </c>
@@ -3985,19 +2568,6 @@
       </c>
       <c r="C110" t="s">
         <v>95</v>
-      </c>
-      <c r="J110">
-        <v>989</v>
-      </c>
-      <c r="K110" t="s">
-        <v>84</v>
-      </c>
-      <c r="L110" t="s">
-        <v>95</v>
-      </c>
-      <c r="M110" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
